--- a/docs/build_instructions_plus.xlsx
+++ b/docs/build_instructions_plus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3376" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D621CAA-E66E-4506-8E51-D2A486476963}"/>
+  <xr:revisionPtr revIDLastSave="3378" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A4B265A-D4F8-47AE-BA5B-31EEFC2C4360}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>KY-040 rotary encoders (knobs)</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Female-female jumper wires 30cm</t>
-  </si>
-  <si>
-    <t>KY-040 rotary encoders (knobs) (5 pieces)</t>
   </si>
   <si>
     <t>KY-016 indicator LED (10 pieces)</t>
@@ -332,7 +329,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,6 +372,9 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -680,10 +680,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>57.92</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -725,12 +725,12 @@
         <v>3.95</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
@@ -739,7 +739,7 @@
         <v>7.95</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>3.95</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -767,7 +767,7 @@
         <v>10.99</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -781,12 +781,12 @@
         <v>5.74</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
@@ -795,7 +795,7 @@
         <v>9.99</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>7.99</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -823,7 +823,7 @@
         <v>3.99</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>5.9</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>6.99</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>7.99</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -879,12 +879,12 @@
         <v>2.17</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="21">
@@ -892,7 +892,7 @@
         <v>170.52000000000004</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +921,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,31 +1280,31 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
+      <c r="A17" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
-        <v>4</v>
+      <c r="C17" s="11">
+        <v>20</v>
       </c>
       <c r="D17" s="5">
-        <v>2.11</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>8.44</v>
+        <v>11</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>0.84399999999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>25</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -1370,12 +1370,12 @@
         <v>0.10900000000000001</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="8"/>
@@ -1383,10 +1383,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="14">
         <f>SUM(F4:F20)</f>
-        <v>93.017999999999986</v>
+        <v>93.273999999999987</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1403,10 +1403,10 @@
     <hyperlink ref="A10" r:id="rId10" xr:uid="{4D185485-56AD-4F09-A208-FA3C7B4E3B33}"/>
     <hyperlink ref="A9" r:id="rId11" xr:uid="{FE02699B-B6CE-4264-B208-57113454DDA8}"/>
     <hyperlink ref="A11" r:id="rId12" display="M2.5x15mm + 6mm standoffs (50 pieces)" xr:uid="{6171EF82-438A-4AC3-A2C3-FCE61F8F6FC7}"/>
-    <hyperlink ref="A17" r:id="rId13" display="KY-040 rotary encoders (knobs)" xr:uid="{EA3723F7-6035-4B94-BCB2-B80EF150FC00}"/>
-    <hyperlink ref="A18" r:id="rId14" display="KY-016 indicator LED" xr:uid="{71B11199-FCCF-440B-BB58-2D72493DF01B}"/>
-    <hyperlink ref="A8" r:id="rId15" xr:uid="{466A8C25-DC01-41E4-BD5B-477FA3AD36BC}"/>
-    <hyperlink ref="A20" r:id="rId16" display="Sticky back rubber feet" xr:uid="{1A9B08A1-D8D2-4ADC-98D2-EBAFECA922B9}"/>
+    <hyperlink ref="A18" r:id="rId13" display="KY-016 indicator LED" xr:uid="{71B11199-FCCF-440B-BB58-2D72493DF01B}"/>
+    <hyperlink ref="A8" r:id="rId14" xr:uid="{466A8C25-DC01-41E4-BD5B-477FA3AD36BC}"/>
+    <hyperlink ref="A20" r:id="rId15" display="Sticky back rubber feet" xr:uid="{1A9B08A1-D8D2-4ADC-98D2-EBAFECA922B9}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{49491BC3-F938-4816-9758-E4EFAA622A5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>

--- a/docs/build_instructions_plus.xlsx
+++ b/docs/build_instructions_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3378" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A4B265A-D4F8-47AE-BA5B-31EEFC2C4360}"/>
+  <xr:revisionPtr revIDLastSave="3402" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4256887-5F5F-4FB0-94B9-B6605B6CC537}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>KY-040 rotary encoders (knobs)</t>
   </si>
@@ -167,15 +167,6 @@
   </si>
   <si>
     <t>Or buy Amazon B07GCY6CH7</t>
-  </si>
-  <si>
-    <t>Any 16GB or larger micro SD card is fine</t>
-  </si>
-  <si>
-    <t>Or buy Amazon B07MDXBT87</t>
-  </si>
-  <si>
-    <t>Or buy Amazon B07KJYR8K1</t>
   </si>
   <si>
     <t>Or buy Amazon B0035GZCHC</t>
@@ -214,6 +205,24 @@
   </si>
   <si>
     <t>Only needed for wood &lt; 6mm thick</t>
+  </si>
+  <si>
+    <t>16GB micro SD card</t>
+  </si>
+  <si>
+    <t>Or buy Amazon B06XWN9Q99 or other 16GB+ card</t>
+  </si>
+  <si>
+    <t>USB thumb drive</t>
+  </si>
+  <si>
+    <t>Or Amazon B07MDXBT87 or other physically small USB drive</t>
+  </si>
+  <si>
+    <t>This is for a large kit of sensors, you only need KY-016. Or search KY-016, but note that almost all other sellers are in China.</t>
+  </si>
+  <si>
+    <t>Sticky back velcro strips (5 yards)</t>
   </si>
 </sst>
 </file>
@@ -661,7 +670,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +720,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -730,7 +739,7 @@
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
@@ -753,7 +762,7 @@
         <v>3.95</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -767,7 +776,7 @@
         <v>10.99</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,15 +787,15 @@
         <v>2</v>
       </c>
       <c r="C8" s="5">
-        <v>5.74</v>
+        <v>6.48</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
@@ -795,7 +804,7 @@
         <v>9.99</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -806,52 +815,52 @@
         <v>2</v>
       </c>
       <c r="C10" s="5">
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>3.99</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>42</v>
+        <v>4.95</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="5">
-        <v>5.9</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+        <v>6.34</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="5">
-        <v>6.99</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>44</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -865,7 +874,7 @@
         <v>7.99</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,10 +885,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="5">
-        <v>2.17</v>
+        <v>4.91</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -889,7 +898,7 @@
       <c r="B16" s="18"/>
       <c r="C16" s="21">
         <f>SUM(C2:C15)</f>
-        <v>170.52000000000004</v>
+        <v>188.40000000000003</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>36</v>
@@ -898,18 +907,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="Raspberry Pi 4 Model B - 1GB RAM" xr:uid="{8C005A08-9065-4BCC-9BD9-4B22AC64AEDB}"/>
-    <hyperlink ref="A11" r:id="rId2" xr:uid="{97E5BC65-4E34-4F48-921E-161EDDA9213E}"/>
-    <hyperlink ref="A12" r:id="rId3" xr:uid="{3F154B3B-AC4E-4343-9565-06FCDD658295}"/>
-    <hyperlink ref="A14" r:id="rId4" xr:uid="{4911D278-415D-4247-A556-9E7F6C57795B}"/>
-    <hyperlink ref="A13" r:id="rId5" xr:uid="{640A7699-5A61-4CEA-AFD7-54AF2B7E0F21}"/>
-    <hyperlink ref="A10" r:id="rId6" xr:uid="{A38EEB0C-B814-414E-A853-616A6A7E5946}"/>
-    <hyperlink ref="A4" r:id="rId7" xr:uid="{8265DDE7-9E2C-411F-856E-54BEF348B8FE}"/>
-    <hyperlink ref="A5" r:id="rId8" display="Official Raspberry Pi Power Supply 5.1V 3A with USB C - 1.5 meter long" xr:uid="{8AD1DFF8-4B9D-486E-AB83-2B81BE240B0A}"/>
-    <hyperlink ref="A7" r:id="rId9" xr:uid="{281DD509-15F1-49E6-8329-1EDD7365432A}"/>
-    <hyperlink ref="A8" r:id="rId10" display="M2.5 screws" xr:uid="{DBBA34BE-8FFB-4888-BDEB-CA5C79614ADA}"/>
-    <hyperlink ref="A9" r:id="rId11" display="Speaker cloth (large piece)" xr:uid="{7450AADB-05CF-408F-87B9-203AF5A96F2F}"/>
-    <hyperlink ref="A6" r:id="rId12" xr:uid="{DE22D019-ED30-4034-96EC-C2DCA889F772}"/>
-    <hyperlink ref="A15" r:id="rId13" xr:uid="{3BF39923-8E19-4D3B-AC0C-392CBFCF7018}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{4911D278-415D-4247-A556-9E7F6C57795B}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{A38EEB0C-B814-414E-A853-616A6A7E5946}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{8265DDE7-9E2C-411F-856E-54BEF348B8FE}"/>
+    <hyperlink ref="A5" r:id="rId5" display="Official Raspberry Pi Power Supply 5.1V 3A with USB C - 1.5 meter long" xr:uid="{8AD1DFF8-4B9D-486E-AB83-2B81BE240B0A}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{281DD509-15F1-49E6-8329-1EDD7365432A}"/>
+    <hyperlink ref="A8" r:id="rId7" display="M2.5 screws" xr:uid="{DBBA34BE-8FFB-4888-BDEB-CA5C79614ADA}"/>
+    <hyperlink ref="A9" r:id="rId8" display="Speaker cloth (large piece)" xr:uid="{7450AADB-05CF-408F-87B9-203AF5A96F2F}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{DE22D019-ED30-4034-96EC-C2DCA889F772}"/>
+    <hyperlink ref="A15" r:id="rId10" xr:uid="{3BF39923-8E19-4D3B-AC0C-392CBFCF7018}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{D4F8AB57-4912-4005-88BA-BF2B75648FC0}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{AAD70613-9BBD-49D5-B9EF-ACA03B2C1087}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{058A3907-27C1-4938-8883-5A6640975D27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -921,7 +930,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,15 +1092,15 @@
         <v>10</v>
       </c>
       <c r="D8" s="5">
-        <v>0.86</v>
+        <v>1.24</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ref="E8" si="1">C8*D8</f>
-        <v>8.6</v>
+        <v>12.4</v>
       </c>
       <c r="F8" s="5">
         <f>E8/$B$1</f>
-        <v>0.86</v>
+        <v>1.24</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -1175,15 +1184,15 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>5.74</v>
+        <v>6.48</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>5.74</v>
+        <v>6.48</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>0.57400000000000007</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -1221,15 +1230,15 @@
         <v>10</v>
       </c>
       <c r="D14" s="5">
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>79.900000000000006</v>
+        <v>99.9</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="G14" s="8"/>
     </row>
@@ -1244,15 +1253,15 @@
         <v>10</v>
       </c>
       <c r="D15" s="5">
-        <v>3.99</v>
+        <v>4.95</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>39.900000000000006</v>
+        <v>49.5</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>3.9900000000000007</v>
+        <v>4.95</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -1267,15 +1276,15 @@
         <v>10</v>
       </c>
       <c r="D16" s="5">
-        <v>5.9</v>
+        <v>6.34</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>63.4</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>5.9</v>
+        <v>6.34</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -1290,15 +1299,15 @@
         <v>20</v>
       </c>
       <c r="D17" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="G17" s="8"/>
     </row>
@@ -1313,44 +1322,44 @@
         <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="2"/>
-        <v>0.186</v>
+        <v>0.192</v>
       </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>2.17</v>
+        <v>7.98</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>21.7</v>
+        <v>7.98</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="2"/>
-        <v>2.17</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -1359,18 +1368,18 @@
         <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="2"/>
-        <v>0.10900000000000001</v>
+        <v>0.11699999999999999</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1383,7 +1392,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="14">
         <f>SUM(F4:F20)</f>
-        <v>93.273999999999987</v>
+        <v>96.109999999999985</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>36</v>

--- a/docs/build_instructions_plus.xlsx
+++ b/docs/build_instructions_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3402" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4256887-5F5F-4FB0-94B9-B6605B6CC537}"/>
+  <xr:revisionPtr revIDLastSave="3404" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FDAE7ED-817E-4142-8C7F-9DD335DB9A7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>Raspberry Pi 4 Model B - 2GB RAM</t>
   </si>
   <si>
-    <t>Or order 10+ from Ponoko for @$37.89</t>
-  </si>
-  <si>
     <t>M2.5x6mm + 6mm standoffs (50 pieces)</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Sticky back velcro strips (5 yards)</t>
+  </si>
+  <si>
+    <t>Or order 10+ from Ponoko for @$48</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,10 +689,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>57.92</v>
+        <v>60</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -734,12 +734,12 @@
         <v>3.95</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
@@ -748,7 +748,7 @@
         <v>7.95</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>3.95</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>10.99</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -790,12 +790,12 @@
         <v>6.48</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
@@ -804,7 +804,7 @@
         <v>9.99</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -818,12 +818,12 @@
         <v>9.99</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
@@ -832,12 +832,12 @@
         <v>4.95</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
@@ -846,7 +846,7 @@
         <v>6.34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>17.989999999999998</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>7.99</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -888,20 +888,20 @@
         <v>4.91</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="21">
         <f>SUM(C2:C15)</f>
-        <v>188.40000000000003</v>
+        <v>190.48000000000002</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +930,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1009,7 @@
         <v>21.5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>25</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>2</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>2</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>25</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -1379,12 +1379,12 @@
         <v>0.11699999999999999</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="8"/>
@@ -1395,7 +1395,7 @@
         <v>96.109999999999985</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/build_instructions_plus.xlsx
+++ b/docs/build_instructions_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3404" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FDAE7ED-817E-4142-8C7F-9DD335DB9A7E}"/>
+  <xr:revisionPtr revIDLastSave="3411" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A01CC748-BA05-4627-AD06-7E0D278547A3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <t>Sticky back velcro strips (5 yards)</t>
   </si>
   <si>
-    <t>Or order 10+ from Ponoko for @$48</t>
+    <t>Or order 10+ from Ponoko for @$42.16</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>38</v>
@@ -898,7 +898,7 @@
       <c r="B16" s="18"/>
       <c r="C16" s="21">
         <f>SUM(C2:C15)</f>
-        <v>190.48000000000002</v>
+        <v>198.48000000000002</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>35</v>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7067D8A-8BAD-4046-8F57-F153419A24B6}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,6 +1396,17 @@
       </c>
       <c r="G21" s="15" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <f>B24-(B24*38%)</f>
+        <v>42.16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/build_instructions_plus.xlsx
+++ b/docs/build_instructions_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3411" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A01CC748-BA05-4627-AD06-7E0D278547A3}"/>
+  <xr:revisionPtr revIDLastSave="3413" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E737CB2-C136-48CE-9AA9-C02CD595A878}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
     <t>Sticky back velcro strips (5 yards)</t>
   </si>
   <si>
-    <t>Or order 10+ from Ponoko for @$42.16</t>
+    <t>Or order 10+ from Ponoko for @$46.53</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>68</v>
+        <v>69.98</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>38</v>
@@ -898,7 +898,7 @@
       <c r="B16" s="18"/>
       <c r="C16" s="21">
         <f>SUM(C2:C15)</f>
-        <v>198.48000000000002</v>
+        <v>200.46000000000004</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>35</v>

--- a/docs/build_instructions_plus.xlsx
+++ b/docs/build_instructions_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3413" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E737CB2-C136-48CE-9AA9-C02CD595A878}"/>
+  <xr:revisionPtr revIDLastSave="3418" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B8D06C0B-68AB-4EF4-BCEE-1F461B9E51EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>KY-040 rotary encoders (knobs)</t>
   </si>
@@ -216,13 +216,16 @@
     <t>Or Amazon B07MDXBT87 or other physically small USB drive</t>
   </si>
   <si>
-    <t>This is for a large kit of sensors, you only need KY-016. Or search KY-016, but note that almost all other sellers are in China.</t>
-  </si>
-  <si>
     <t>Sticky back velcro strips (5 yards)</t>
   </si>
   <si>
     <t>Or order 10+ from Ponoko for @$46.53</t>
+  </si>
+  <si>
+    <t>Banggood</t>
+  </si>
+  <si>
+    <t>ALLOW ~3 WEEKS TO ARRIVE FROM CHINA. Due to COVID, it's hard to find these in the US. You can get it quickly from Amazon B07KJYR8K1, but costs $18.</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,13 +857,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5">
-        <v>17.989999999999998</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -898,7 +901,7 @@
       <c r="B16" s="18"/>
       <c r="C16" s="21">
         <f>SUM(C2:C15)</f>
-        <v>200.46000000000004</v>
+        <v>186.74000000000004</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>35</v>
@@ -1009,7 +1012,7 @@
         <v>21.5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1339,7 @@
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2</v>

--- a/docs/build_instructions_plus.xlsx
+++ b/docs/build_instructions_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3418" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B8D06C0B-68AB-4EF4-BCEE-1F461B9E51EA}"/>
+  <xr:revisionPtr revIDLastSave="3419" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C761BCB-4842-4F8B-8883-F48EF1E32FD6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,7 +341,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -386,6 +386,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -673,7 +676,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +856,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">

--- a/docs/build_instructions_plus.xlsx
+++ b/docs/build_instructions_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3419" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C761BCB-4842-4F8B-8883-F48EF1E32FD6}"/>
+  <xr:revisionPtr revIDLastSave="3446" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6F1CF601-FF20-4060-A20E-0B87C2AA7F7D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="1" r:id="rId1"/>
@@ -204,9 +204,6 @@
     <t>Only needed for wood &lt; 6mm thick</t>
   </si>
   <si>
-    <t>16GB micro SD card</t>
-  </si>
-  <si>
     <t>Or buy Amazon B06XWN9Q99 or other 16GB+ card</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>ALLOW ~3 WEEKS TO ARRIVE FROM CHINA. Due to COVID, it's hard to find these in the US. You can get it quickly from Amazon B07KJYR8K1, but costs $18.</t>
+  </si>
+  <si>
+    <t>16GB+ micro SD card</t>
   </si>
 </sst>
 </file>
@@ -341,7 +341,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -386,9 +386,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -675,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>10.99</v>
+        <v>12.99</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>43</v>
@@ -793,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="5">
-        <v>6.48</v>
+        <v>6.85</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>49</v>
@@ -829,44 +826,44 @@
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>4.95</v>
+        <v>7.49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="5">
-        <v>6.34</v>
+        <v>7.19</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -891,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5">
-        <v>4.91</v>
+        <v>2.98</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>41</v>
@@ -904,7 +901,7 @@
       <c r="B16" s="18"/>
       <c r="C16" s="21">
         <f>SUM(C2:C15)</f>
-        <v>186.74000000000004</v>
+        <v>190.91000000000005</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>35</v>
@@ -933,10 +930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7067D8A-8BAD-4046-8F57-F153419A24B6}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1012,7 @@
         <v>21.5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1121,15 +1118,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>2.4300000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:F20" si="2">E9/$B$1</f>
-        <v>0.24300000000000002</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -1144,15 +1141,15 @@
         <v>1</v>
       </c>
       <c r="D10" s="5">
-        <v>3.49</v>
+        <v>3.41</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>3.49</v>
+        <v>3.41</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>0.34900000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1167,15 +1164,15 @@
         <v>1</v>
       </c>
       <c r="D11" s="5">
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>0.40400000000000003</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -1190,15 +1187,15 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>6.48</v>
+        <v>6.85</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>6.48</v>
+        <v>6.85</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>0.64800000000000002</v>
+        <v>0.68499999999999994</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -1259,15 +1256,15 @@
         <v>10</v>
       </c>
       <c r="D15" s="5">
-        <v>4.95</v>
+        <v>7.49</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>49.5</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>4.95</v>
+        <v>7.49</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -1282,15 +1279,15 @@
         <v>10</v>
       </c>
       <c r="D16" s="5">
-        <v>6.34</v>
+        <v>7.19</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>63.4</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>6.34</v>
+        <v>7.19</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -1342,7 +1339,7 @@
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2</v>
@@ -1351,15 +1348,15 @@
         <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>7.98</v>
+        <v>7.92</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>7.98</v>
+        <v>7.92</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="2"/>
-        <v>0.79800000000000004</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G19" s="8"/>
     </row>
@@ -1374,15 +1371,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>1.17</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>1.17</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="2"/>
-        <v>0.11699999999999999</v>
+        <v>0.10900000000000001</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>52</v>
@@ -1398,21 +1395,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="14">
         <f>SUM(F4:F20)</f>
-        <v>96.109999999999985</v>
+        <v>99.500999999999962</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <f>B24-(B24*38%)</f>
-        <v>42.16</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1409,7 @@
     <hyperlink ref="A14" r:id="rId4" xr:uid="{FAEE0BBB-392E-48BA-8ABE-A180499726B2}"/>
     <hyperlink ref="A6" r:id="rId5" xr:uid="{BB777B13-FFB3-48BF-A711-9E0EE45401F8}"/>
     <hyperlink ref="A12" r:id="rId6" display="M2.5 screws" xr:uid="{59D08313-3793-45FC-83F6-2784D7FCAD3D}"/>
-    <hyperlink ref="A13" r:id="rId7" display="Speaker cloth" xr:uid="{59CA8387-2F40-42B5-A41D-593ECAE2F4DF}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{59CA8387-2F40-42B5-A41D-593ECAE2F4DF}"/>
     <hyperlink ref="A7" r:id="rId8" xr:uid="{9A82FFC4-CB7D-42BA-AB63-D242F99050D5}"/>
     <hyperlink ref="A19" r:id="rId9" xr:uid="{B16101EC-3961-4F49-8C09-C72120D0CE62}"/>
     <hyperlink ref="A10" r:id="rId10" xr:uid="{4D185485-56AD-4F09-A208-FA3C7B4E3B33}"/>
